--- a/Workbook/Log Analytics Audit Queries.xlsx
+++ b/Workbook/Log Analytics Audit Queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_364d\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{741B2723-7F34-4390-9D46-4CB920414FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{858EB5CA-FA2E-41FF-A1C0-E5D59C4DFC01}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{741B2723-7F34-4390-9D46-4CB920414FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBA63689-ED73-4C84-B8DA-B9D9A1176BD2}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="225" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{0DA9C854-384C-48CB-B4E7-52085F600B63}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Audit Category</t>
   </si>
@@ -172,6 +172,72 @@
   </si>
   <si>
     <t>SecurityEvent | where EventID==4634 or EventID==4647 | project TimeGenerated, Activity, Computer, IpAddress, AuthenticationPackageName, LogonProcessName, LogonTypeName, TargetAccount</t>
+  </si>
+  <si>
+    <t>Object Access</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/security/threat-protection/auditing/audit-file-share</t>
+  </si>
+  <si>
+    <t>Audit File Share- Win10-Svr2016</t>
+  </si>
+  <si>
+    <t>SecurityEvent | where EventID==5140 or EventID==5142 or EventID==5143 or EventID==5144 or EventID==5168 | project TimeGenerated, Activity, Computer, IpAddress, AuthenticationPackageName, LogonProcessName, LogonTypeName, TargetAccount</t>
+  </si>
+  <si>
+    <t>Audit Registry- Win10-Svr2016</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/security/threat-protection/auditing/audit-registry</t>
+  </si>
+  <si>
+    <t>SecurityEvent | where EventID==4663 or EventID==4656 or EventID==4658 or EventID==4660 or EventID==4657 or EventID==5039 or EventID==4670 | project TimeGenerated, Activity, Computer, IpAddress, AuthenticationPackageName, LogonProcessName, LogonTypeName, TargetAccount</t>
+  </si>
+  <si>
+    <t>Policy Change</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/security/threat-protection/auditing/audit-audit-policy-change</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/security/threat-protection/auditing/audit-authentication-policy-change</t>
+  </si>
+  <si>
+    <t>Audit Audit Policy Change - Win10-Svr2016</t>
+  </si>
+  <si>
+    <t>Audit Authentication Policy Change - Win10-Svr2016</t>
+  </si>
+  <si>
+    <t>SecurityEvent | where EventID==4715 or EventID==4719or EventID==4817 or EventID==4902 or EventID==4906 or EventID==4907 or EventID==4908 or EventID==4912 or EventID==4904 or EventID==4905| project TimeGenerated, Activity, Computer, IpAddress, AuthenticationPackageName, LogonProcessName, LogonTypeName, TargetAccount</t>
+  </si>
+  <si>
+    <t>SecurityEvent | where EventID==4670 or EventID==4706 or EventID==4707 or EventID==4716 or EventID==4713 or EventID==4717 or EventID==4718 or EventID==4739 or EventID==4864 or EventID==4865 or EventID==4866 or EventID==4867| project TimeGenerated, Activity, Computer, IpAddress, AuthenticationPackageName, LogonProcessName, LogonTypeName, TargetAccount</t>
+  </si>
+  <si>
+    <t>Privilage Use</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/security/threat-protection/auditing/audit-sensitive-privilege-use</t>
+  </si>
+  <si>
+    <t>Audit Sensitive Privilege Use - Win10-Svr2016</t>
+  </si>
+  <si>
+    <t>SecurityEvent | where EventID==4673 or EventID==4674 or EventID==4985 | project TimeGenerated, Activity, Computer, IpAddress, AuthenticationPackageName, LogonProcessName, LogonTypeName, TargetAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System </t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/security/threat-protection/auditing/audit-security-state-change</t>
+  </si>
+  <si>
+    <t>Audit Security State Change - Win10-Svr2016</t>
+  </si>
+  <si>
+    <t>SecurityEvent | where EventID==4608 or EventID==4616 or EventID==4621 | project TimeGenerated, Activity, Computer, IpAddress, AuthenticationPackageName, LogonProcessName, LogonTypeName, TargetAccount</t>
   </si>
 </sst>
 </file>
@@ -238,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -279,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,12 +719,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765228A9-CC06-4FF5-9DCA-FF6B2B8AE94B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E4CF474E-008A-4D1C-833B-0812028C4430}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -970,15 +1077,140 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78D29DD-5C28-489A-9B06-652AC2CBFFC4}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EEDD258D-CCFE-41CB-9176-4A420BB4E046}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{EE5DE7CC-4791-4B5B-9A24-2550DE039C19}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87977397-604C-44BA-9DC8-69884087538A}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4C9157A0-1D77-47C9-B9EB-D437AE9C3B4E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C66CB6AC-D66F-41B2-9B58-D4013AC26B75}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF7C12B-924B-4260-9A83-5EB5A3C0E7A9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -995,31 +1227,24 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87977397-604C-44BA-9DC8-69884087538A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF7C12B-924B-4260-9A83-5EB5A3C0E7A9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0DDCBEF1-4034-4B5E-B87F-A4BA4E8A8880}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
